--- a/Информация о проходах/Киселева Екатерина Владимировна.xlsx
+++ b/Информация о проходах/Киселева Екатерина Владимировна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-13 08:46:34</t>
+          <t>2024-06-18 08:35:56</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-13 18:01:09</t>
+          <t>2024-06-18 18:01:40</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-14 08:42:17</t>
+          <t>2024-06-19 08:42:38</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-14 18:00:42</t>
+          <t>2024-06-19 18:00:42</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-15 08:47:55</t>
+          <t>2024-06-20 08:29:43</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-15 18:03:16</t>
+          <t>2024-06-20 18:00:49</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-16 08:47:49</t>
+          <t>2024-06-21 08:40:06</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-16 18:01:16</t>
+          <t>2024-06-21 18:00:53</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-17 08:54:05</t>
+          <t>2024-06-24 08:34:04</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-17 18:01:25</t>
+          <t>2024-06-24 18:01:15</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-20 08:47:59</t>
+          <t>2024-06-25 08:47:04</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-20 18:00:38</t>
+          <t>2024-06-25 18:01:38</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-21 08:39:38</t>
+          <t>2024-06-26 08:41:53</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-21 18:01:01</t>
+          <t>2024-06-26 18:01:14</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-22 08:37:33</t>
+          <t>2024-06-27 08:28:19</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-22 18:00:26</t>
+          <t>2024-06-27 18:00:20</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-23 08:46:59</t>
+          <t>2024-06-28 08:39:22</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-23 17:31:36</t>
+          <t>2024-06-28 18:00:52</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-24 08:06:36</t>
+          <t>2024-07-01 08:44:09</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-24 18:01:12</t>
+          <t>2024-07-01 18:01:18</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-27 08:50:35</t>
+          <t>2024-07-02 08:41:30</t>
         </is>
       </c>
     </row>
@@ -1121,263 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-27 18:00:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2024-05-28 08:41:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2024-05-28 18:01:34</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2024-05-29 08:35:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2024-05-29 18:00:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2024-05-30 08:37:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2024-05-30 18:00:25</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2024-05-31 08:55:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Киселева Екатерина Владимировна</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Менеджер по тендерам</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Тендерный отдел</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2024-05-31 18:01:17</t>
+          <t>2024-07-02 18:01:45</t>
         </is>
       </c>
     </row>
